--- a/Cell Coverage Prediction/Cell_Parameter.xlsx
+++ b/Cell Coverage Prediction/Cell_Parameter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Single Cell Coverage Prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Cell Coverage Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CB1ED915-E143-440E-B2A8-6EDA5DF429C6}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07A0E785-A1F9-4D44-8A93-B7C49DC64BCE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Parameter</t>
   </si>
@@ -74,6 +74,9 @@
       </rPr>
       <t>°)</t>
     </r>
+  </si>
+  <si>
+    <t>Frequency (MHz)</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +502,20 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2500</v>
+      </c>
+      <c r="C7">
+        <v>2500</v>
+      </c>
+      <c r="D7">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cell Coverage Prediction/Cell_Parameter.xlsx
+++ b/Cell Coverage Prediction/Cell_Parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Cell Coverage Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{07A0E785-A1F9-4D44-8A93-B7C49DC64BCE}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{58213649-197F-41BD-9AA8-1B3BA897522F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cell Coverage Prediction/Cell_Parameter.xlsx
+++ b/Cell Coverage Prediction/Cell_Parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Cell Coverage Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{58213649-197F-41BD-9AA8-1B3BA897522F}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A633E561-967B-41FA-8008-91748FC7684F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cell Coverage Prediction/Cell_Parameter.xlsx
+++ b/Cell Coverage Prediction/Cell_Parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Cell Coverage Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A633E561-967B-41FA-8008-91748FC7684F}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{443BEEC2-FCE5-4C77-BC9D-8671AA9B4AAD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,13 +451,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -465,13 +465,13 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="D4">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,13 +479,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/Cell Coverage Prediction/Cell_Parameter.xlsx
+++ b/Cell Coverage Prediction/Cell_Parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Cell Coverage Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{443BEEC2-FCE5-4C77-BC9D-8671AA9B4AAD}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C36EFAA-B445-4358-9949-03B7F135BDEE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,13 +465,13 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="D4">
-        <v>320</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">

--- a/Cell Coverage Prediction/Cell_Parameter.xlsx
+++ b/Cell Coverage Prediction/Cell_Parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzainal\OneDrive\Code\01 - Python\04 - Project\5G-NR-Coverage-Prediction\Cell Coverage Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC104885319C46CC5ADE58E4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C36EFAA-B445-4358-9949-03B7F135BDEE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0478D36D-52CD-4B48-997B-CB5E6A625653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,13 +465,13 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D4">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,13 +479,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
